--- a/trunk/EnhancedMorseDecoder/Decoder_PCB_BOM.xlsx
+++ b/trunk/EnhancedMorseDecoder/Decoder_PCB_BOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="116">
   <si>
     <t>Reference Designator</t>
   </si>
@@ -90,9 +90,6 @@
     <t>180 kΩ Thick Film Resistor</t>
   </si>
   <si>
-    <t>Temperature Coefficient:± 100ppm/°C     Power Rating:250mW</t>
-  </si>
-  <si>
     <t>R10</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>http://www.newark.com/vishay-dale/crcw1206150kfkea/resistor-thick-film-150kohm-250mw/dp/53K2000</t>
   </si>
   <si>
-    <t>size: 1206</t>
-  </si>
-  <si>
     <t>R11</t>
   </si>
   <si>
@@ -132,9 +126,6 @@
     <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=P430KFCT-ND</t>
   </si>
   <si>
-    <t>Size: 1206</t>
-  </si>
-  <si>
     <t>P430KFCT-ND</t>
   </si>
   <si>
@@ -154,15 +145,6 @@
   </si>
   <si>
     <t>P240KFCT-ND</t>
-  </si>
-  <si>
-    <t>R53</t>
-  </si>
-  <si>
-    <t>0Ω Resistor</t>
-  </si>
-  <si>
-    <t>This part may be necessary if the 2k Resistor on the output is not needed</t>
   </si>
   <si>
     <t>RED = part not chosen</t>
@@ -242,31 +224,6 @@
     <t>Red LED</t>
   </si>
   <si>
-    <t>P330GCT-ND</t>
-  </si>
-  <si>
-    <t>ERJ-3GEYJ331V
-RES 330 OHM 1/10W 5% 0603 SMD</t>
-  </si>
-  <si>
-    <t>P10.0CCT-ND</t>
-  </si>
-  <si>
-    <t>ERJ-6ENF10R0V
-RES 10.0 OHM 1/8W 1% 0805 SMD</t>
-  </si>
-  <si>
-    <t>445-4040-1-ND</t>
-  </si>
-  <si>
-    <t>C3216X7R1C685K
-CAP CER 6.8UF 16V X7R 10% 1206
-vcap</t>
-  </si>
-  <si>
-    <t>490-1054-1-ND</t>
-  </si>
-  <si>
     <t>These are backup for R6</t>
   </si>
   <si>
@@ -337,6 +294,96 @@
   </si>
   <si>
     <t>FERRITE CHIP 220 OHM 2000MA 0805</t>
+  </si>
+  <si>
+    <t>RES 330 OHM 1/10W 5% 0603 SMD</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=P330GCT-ND</t>
+  </si>
+  <si>
+    <t>RES 10.0 OHM 1/8W 1% 0805 SMD</t>
+  </si>
+  <si>
+    <t>1/10W 5%</t>
+  </si>
+  <si>
+    <t>ERJ-3GEYJ331V</t>
+  </si>
+  <si>
+    <t>R4,R5</t>
+  </si>
+  <si>
+    <t>larger header</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=P10.0CCT-ND</t>
+  </si>
+  <si>
+    <t>ERJ-6ENF10R0V</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>CAP CER 6.8UF 16V X7R 10% 1206</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=445-4040-1-ND</t>
+  </si>
+  <si>
+    <t>Must buy at least 10</t>
+  </si>
+  <si>
+    <t>C3216X7R1C685K</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-1054-1-ND</t>
+  </si>
+  <si>
+    <t>Power Rating:250mW</t>
+  </si>
+  <si>
+    <t>BLM21PG221SN1D</t>
+  </si>
+  <si>
+    <t>ERJ-6GEY0R00V</t>
+  </si>
+  <si>
+    <t>RES 0.0 OHM 1/8W 0805 SMD</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=P0.0ACT-ND</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=A26509-40-ND</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=A28564-ND</t>
+  </si>
+  <si>
+    <t>possibilities</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=DSPIC33FJ128GP802-I/SO-ND</t>
+  </si>
+  <si>
+    <t>Microcontroller</t>
+  </si>
+  <si>
+    <t>IC DSPIC MCU/DSP 128K 28SOIC</t>
+  </si>
+  <si>
+    <t>DSPIC33FJ128GP802-I/SO</t>
+  </si>
+  <si>
+    <t>R23,R2</t>
+  </si>
+  <si>
+    <t>6 pin header</t>
   </si>
 </sst>
 </file>
@@ -347,7 +394,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,6 +454,10 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -416,7 +467,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -457,32 +508,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -500,62 +525,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -564,16 +533,15 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -582,7 +550,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -595,72 +562,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -693,15 +644,25 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -717,23 +678,31 @@
       </font>
       <numFmt numFmtId="165" formatCode="0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -746,6 +715,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -764,12 +739,18 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
       <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -782,11 +763,17 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
       <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -799,6 +786,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -815,8 +808,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -833,13 +830,19 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -849,8 +852,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -862,15 +869,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -878,6 +876,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -907,8 +914,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I21" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A1:I21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I24" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+  <autoFilter ref="A1:I24"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Reference Designator" dataDxfId="10"/>
     <tableColumn id="2" name="Part Number" dataDxfId="9"/>
@@ -1213,669 +1220,771 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="7" style="7" customWidth="1"/>
-    <col min="9" max="9" width="73.42578125" customWidth="1"/>
+    <col min="8" max="8" width="7" style="6" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="47.25" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="6" customFormat="1">
+      <c r="A2" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="12">
+        <v>2</v>
+      </c>
+      <c r="E2" s="11">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F2" s="11">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>0.114</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="24">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="11">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>0.8</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="K3" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="13"/>
+      <c r="K4" s="17"/>
+    </row>
+    <row r="5" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="13"/>
+      <c r="K5" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3</v>
+      </c>
+      <c r="E6" s="21">
+        <v>1.05</v>
+      </c>
+      <c r="F6" s="11">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>3.1500000000000004</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="24">
+        <v>2</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.53</v>
+      </c>
+      <c r="F7" s="11">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>1.06</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="16">
+        <v>603</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="24">
+        <v>2</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="F8" s="11">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>0.06</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="16">
+        <v>603</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="24">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F9" s="11">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="16">
+        <v>805</v>
+      </c>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="24">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="F10" s="11">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="16">
+        <v>1206</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="A11" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="24">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="16">
+        <v>805</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="F12" s="11">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>1.6900000000000002</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="33">
+        <v>805</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="12">
+        <v>6</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.27</v>
+      </c>
+      <c r="F13" s="11">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>1.62</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="16">
+        <v>1210</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="12">
+        <v>4</v>
+      </c>
+      <c r="E14" s="11">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F14" s="11">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="16">
+        <v>603</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="12">
+        <v>2</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="F15" s="11">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1</v>
+      </c>
+      <c r="E16" s="11">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="F16" s="11">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="16">
+        <v>1206</v>
+      </c>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="E17" s="11">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F17" s="11">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="6" customFormat="1">
+      <c r="A18" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="12">
+        <v>1</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F18" s="11">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="16">
+        <v>1206</v>
+      </c>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="1:9" s="6" customFormat="1">
+      <c r="A19" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="12">
+        <v>1</v>
+      </c>
+      <c r="E19" s="11">
+        <v>6.52</v>
+      </c>
+      <c r="F19" s="11">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>6.52</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="12">
+        <v>2</v>
+      </c>
+      <c r="E20" s="11">
+        <v>4.88</v>
+      </c>
+      <c r="F20" s="11">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>9.76</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="12">
+        <v>2</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F21" s="11">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>0.2</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="16">
+        <v>1206</v>
+      </c>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="12">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F22" s="11">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>0.1</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="16">
+        <v>1206</v>
+      </c>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="12">
+        <v>1</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F23" s="11">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>0.1</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="16">
+        <v>1206</v>
+      </c>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="12">
+        <v>3</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="F24" s="11">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>0.12</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="16">
+        <v>805</v>
+      </c>
+      <c r="I24" s="34"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="18">
+        <f>SUM(Table1[Quantity per board])</f>
+        <v>43</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19">
+        <f>SUM(Table1[Total Price])</f>
+        <v>28.327000000000005</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="C27" s="6"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="14">
-        <v>2</v>
-      </c>
-      <c r="E2" s="13">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="F2" s="13">
-        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>0.114</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="31">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="F3" s="13">
-        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>0.8</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="26"/>
-    </row>
-    <row r="4" spans="1:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="8">
-        <v>3</v>
-      </c>
-      <c r="E4" s="42">
-        <v>1.05</v>
-      </c>
-      <c r="F4" s="13">
-        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>3.1500000000000004</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="H4" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="43"/>
-    </row>
-    <row r="5" spans="1:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="31">
-        <v>2</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0.53</v>
-      </c>
-      <c r="F5" s="13">
-        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>1.06</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="23">
-        <v>603</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="31">
-        <v>2</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F6" s="13">
-        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>0.06</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="26"/>
-    </row>
-    <row r="7" spans="1:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="31">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13">
-        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="26"/>
-    </row>
-    <row r="8" spans="1:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="31">
-        <v>1</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13">
-        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="26"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="31">
-        <v>1</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13">
-        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="16" t="s">
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="20"/>
+      <c r="C29" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="17" t="s">
+    </row>
+    <row r="30" spans="1:9">
+      <c r="C30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="C31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="C32" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="14">
-        <v>5</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="F10" s="13">
-        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>1.6900000000000002</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="27">
-        <v>805</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="14">
-        <v>6</v>
-      </c>
-      <c r="E11" s="13">
-        <v>0.27</v>
-      </c>
-      <c r="F11" s="13">
-        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>1.62</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="23">
-        <v>1210</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="14">
-        <v>4</v>
-      </c>
-      <c r="E12" s="13">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="F12" s="13">
-        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="23">
-        <v>603</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="14">
-        <v>2</v>
-      </c>
-      <c r="E13" s="13">
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="F13" s="13">
-        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>0.95399999999999996</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="13">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="F14" s="13">
-        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="14">
-        <v>1</v>
-      </c>
-      <c r="E15" s="13">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="F15" s="13">
-        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="14">
-        <v>1</v>
-      </c>
-      <c r="E16" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="F16" s="13">
-        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>0.1</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="14">
-        <v>2</v>
-      </c>
-      <c r="E17" s="13">
-        <v>4.88</v>
-      </c>
-      <c r="F17" s="13">
-        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>9.76</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="20"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="14">
-        <v>2</v>
-      </c>
-      <c r="E18" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="F18" s="13">
-        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>0.2</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="14">
-        <v>1</v>
-      </c>
-      <c r="E19" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="F19" s="13">
-        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>0.1</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="14">
-        <v>1</v>
-      </c>
-      <c r="E20" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="F20" s="13">
-        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>0.1</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13">
-        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="32">
-        <f>SUM(Table1[Quantity per board])</f>
-        <v>39</v>
-      </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33">
-        <f>SUM(Table1[Total Price])</f>
-        <v>20.012000000000004</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="7"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="C26" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="7" t="s">
-        <v>62</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F22">
+  <conditionalFormatting sqref="F25">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>40</formula>
     </cfRule>
@@ -1884,27 +1993,31 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G13" r:id="rId1"/>
-    <hyperlink ref="G15" r:id="rId2"/>
-    <hyperlink ref="G14" r:id="rId3"/>
-    <hyperlink ref="G16" r:id="rId4"/>
-    <hyperlink ref="G18" r:id="rId5"/>
-    <hyperlink ref="G20" r:id="rId6"/>
-    <hyperlink ref="G19" r:id="rId7"/>
+    <hyperlink ref="G15" r:id="rId1"/>
+    <hyperlink ref="G17" r:id="rId2"/>
+    <hyperlink ref="G16" r:id="rId3"/>
+    <hyperlink ref="G18" r:id="rId4"/>
+    <hyperlink ref="G21" r:id="rId5"/>
+    <hyperlink ref="G23" r:id="rId6"/>
+    <hyperlink ref="G22" r:id="rId7"/>
     <hyperlink ref="G2" r:id="rId8"/>
-    <hyperlink ref="G11" r:id="rId9"/>
-    <hyperlink ref="G10" r:id="rId10"/>
-    <hyperlink ref="B6" r:id="rId11" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=P330GCT-ND"/>
-    <hyperlink ref="B7" r:id="rId12" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=P10.0CCT-ND"/>
-    <hyperlink ref="B8" r:id="rId13" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=445-4040-1-ND"/>
-    <hyperlink ref="B9" r:id="rId14" display="http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=490-1054-1-ND"/>
-    <hyperlink ref="G5" r:id="rId15"/>
-    <hyperlink ref="G4" r:id="rId16"/>
+    <hyperlink ref="G13" r:id="rId9"/>
+    <hyperlink ref="G12" r:id="rId10"/>
+    <hyperlink ref="G7" r:id="rId11"/>
+    <hyperlink ref="G6" r:id="rId12"/>
+    <hyperlink ref="G8" r:id="rId13"/>
+    <hyperlink ref="G9" r:id="rId14"/>
+    <hyperlink ref="G10" r:id="rId15"/>
+    <hyperlink ref="G11" r:id="rId16"/>
+    <hyperlink ref="G24" r:id="rId17"/>
+    <hyperlink ref="K3" r:id="rId18"/>
+    <hyperlink ref="K5" r:id="rId19"/>
+    <hyperlink ref="G19" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="301" verticalDpi="300" r:id="rId17"/>
+  <pageSetup orientation="portrait" horizontalDpi="301" verticalDpi="300" r:id="rId21"/>
   <tableParts count="1">
-    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId22"/>
   </tableParts>
 </worksheet>
 </file>
--- a/trunk/EnhancedMorseDecoder/Decoder_PCB_BOM.xlsx
+++ b/trunk/EnhancedMorseDecoder/Decoder_PCB_BOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="121">
   <si>
     <t>Reference Designator</t>
   </si>
@@ -167,9 +167,6 @@
     </r>
   </si>
   <si>
-    <t>C14, C16, C18</t>
-  </si>
-  <si>
     <t>R15</t>
   </si>
   <si>
@@ -384,6 +381,24 @@
   </si>
   <si>
     <t>6 pin header</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=478-1683-1-ND</t>
+  </si>
+  <si>
+    <t>CAP TANTALUM 22UF 20V 10% SMD</t>
+  </si>
+  <si>
+    <t>TAJB226K020RNJ</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C14,C16,C18,C12,C15</t>
+  </si>
+  <si>
+    <t>Tank cap</t>
   </si>
 </sst>
 </file>
@@ -394,7 +409,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,6 +472,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -869,6 +885,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -876,15 +901,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -914,8 +930,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I24" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
-  <autoFilter ref="A1:I24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I25" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A1:I25"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Reference Designator" dataDxfId="10"/>
     <tableColumn id="2" name="Part Number" dataDxfId="9"/>
@@ -1220,13 +1236,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
@@ -1239,7 +1255,7 @@
     <col min="9" max="9" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="47.25" customHeight="1">
+    <row r="1" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1262,21 +1278,21 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>57</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>58</v>
       </c>
       <c r="D2" s="12">
         <v>2</v>
@@ -1289,27 +1305,27 @@
         <v>0.114</v>
       </c>
       <c r="G2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>61</v>
-      </c>
       <c r="K2" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="24">
         <v>1</v>
@@ -1322,19 +1338,19 @@
         <v>0.8</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I3" s="13"/>
       <c r="K3" s="17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="23"/>
@@ -1347,11 +1363,13 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
       <c r="I4" s="13"/>
-      <c r="K4" s="17"/>
-    </row>
-    <row r="5" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="K4" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="23"/>
@@ -1364,19 +1382,16 @@
       <c r="G5" s="15"/>
       <c r="H5" s="28"/>
       <c r="I5" s="13"/>
-      <c r="K5" s="17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1">
+    </row>
+    <row r="6" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="D6" s="7">
         <v>3</v>
@@ -1389,22 +1404,22 @@
         <v>3.1500000000000004</v>
       </c>
       <c r="G6" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="29"/>
-    </row>
-    <row r="7" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="26" t="s">
-        <v>83</v>
-      </c>
       <c r="B7" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="24">
         <v>2</v>
@@ -1417,24 +1432,24 @@
         <v>1.06</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" s="16">
         <v>603</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="24">
         <v>2</v>
@@ -1447,24 +1462,24 @@
         <v>0.06</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H8" s="16">
         <v>603</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="24">
         <v>1</v>
@@ -1477,402 +1492,404 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H9" s="16">
         <v>805</v>
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="24">
+        <v>2</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.63</v>
+      </c>
+      <c r="F10" s="11">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>1.26</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="16">
+        <v>1210</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="24">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="F10" s="11">
-        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H10" s="16">
-        <v>1206</v>
-      </c>
-      <c r="I10" s="7" t="s">
+      <c r="B11" s="7" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="A11" s="26" t="s">
+      <c r="C11" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>85</v>
       </c>
       <c r="D11" s="24">
         <v>1</v>
       </c>
       <c r="E11" s="10">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="F11" s="11">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="16">
+        <v>1206</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="24">
         <v>1</v>
       </c>
-      <c r="F11" s="11">
-        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+      <c r="E12" s="10">
         <v>1</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="16">
+      <c r="F12" s="11">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="16">
         <v>805</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I12" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="12">
+        <v>5</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="F13" s="11">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>1.6900000000000002</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="33">
+        <v>805</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="12">
+        <v>7</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0.27</v>
+      </c>
+      <c r="F14" s="11">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>1.8900000000000001</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="16">
+        <v>1210</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="12">
+        <v>4</v>
+      </c>
+      <c r="E15" s="11">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F15" s="11">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="G15" s="15" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="12">
-        <v>5</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="F12" s="11">
-        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>1.6900000000000002</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="33">
-        <v>805</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="12">
-        <v>6</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F13" s="11">
-        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>1.62</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="16">
-        <v>1210</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="12">
-        <v>4</v>
-      </c>
-      <c r="E14" s="11">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="F14" s="11">
-        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="16">
+      <c r="H15" s="16">
         <v>603</v>
       </c>
-      <c r="I14" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="14" t="s">
+      <c r="I15" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C16" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D16" s="12">
         <v>2</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E16" s="11">
         <v>0.47699999999999998</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F16" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
         <v>0.95399999999999996</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G16" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I16" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="7" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="D16" s="12">
-        <v>1</v>
-      </c>
-      <c r="E16" s="11">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="F16" s="11">
-        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="16">
-        <v>1206</v>
-      </c>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="D17" s="12">
         <v>1</v>
       </c>
       <c r="E17" s="11">
-        <v>4.4999999999999998E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="F17" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>4.4999999999999998E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="6" customFormat="1">
-      <c r="A18" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="H17" s="16">
+        <v>1206</v>
+      </c>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D18" s="12">
         <v>1</v>
       </c>
       <c r="E18" s="11">
-        <v>0.1</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F18" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>0.1</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="16">
-        <v>1206</v>
-      </c>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="1:9" s="6" customFormat="1">
+        <v>18</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="D19" s="12">
         <v>1</v>
       </c>
       <c r="E19" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="11">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>0.1</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="16">
+        <v>1206</v>
+      </c>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="12">
+        <v>1</v>
+      </c>
+      <c r="E20" s="11">
         <v>6.52</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F20" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
         <v>6.52</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G20" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="7" t="s">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="B21" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="12">
-        <v>2</v>
-      </c>
-      <c r="E20" s="11">
-        <v>4.88</v>
-      </c>
-      <c r="F20" s="11">
-        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>9.76</v>
-      </c>
-      <c r="G20" s="15" t="s">
+      <c r="C21" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="D21" s="12">
         <v>2</v>
       </c>
       <c r="E21" s="11">
-        <v>0.1</v>
+        <v>4.88</v>
       </c>
       <c r="F21" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>0.2</v>
+        <v>9.76</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="16">
-        <v>1206</v>
+        <v>71</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D22" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="11">
         <v>0.1</v>
       </c>
       <c r="F22" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H22" s="16">
         <v>1206</v>
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="12">
         <v>1</v>
@@ -1885,106 +1902,134 @@
         <v>0.1</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H23" s="16">
         <v>1206</v>
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="35" t="s">
-        <v>114</v>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>30</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="12">
+        <v>1</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F24" s="11">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>0.1</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="16">
+        <v>1206</v>
+      </c>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D25" s="12">
+        <v>3</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="F25" s="11">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>0.12</v>
+      </c>
+      <c r="G25" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="12">
-        <v>3</v>
-      </c>
-      <c r="E24" s="11">
-        <v>0.04</v>
-      </c>
-      <c r="F24" s="11">
-        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>0.12</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="H24" s="16">
+      <c r="H25" s="16">
         <v>805</v>
       </c>
-      <c r="I24" s="34"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="4" t="s">
+      <c r="I25" s="34"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D26" s="18">
         <f>SUM(Table1[Quantity per board])</f>
-        <v>43</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19">
+        <v>46</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="19">
         <f>SUM(Table1[Total Price])</f>
-        <v>28.327000000000005</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="C27" s="6"/>
+        <v>29.856999999999999</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="6"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C29" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="C30" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="20"/>
-      <c r="C29" s="6" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="C30" s="6" t="s">
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="C31" s="6" t="s">
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="C32" s="6" t="s">
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="F25">
+  <conditionalFormatting sqref="F26">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>40</formula>
     </cfRule>
@@ -1993,26 +2038,26 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G15" r:id="rId1"/>
-    <hyperlink ref="G17" r:id="rId2"/>
-    <hyperlink ref="G16" r:id="rId3"/>
-    <hyperlink ref="G18" r:id="rId4"/>
-    <hyperlink ref="G21" r:id="rId5"/>
-    <hyperlink ref="G23" r:id="rId6"/>
-    <hyperlink ref="G22" r:id="rId7"/>
+    <hyperlink ref="G16" r:id="rId1"/>
+    <hyperlink ref="G18" r:id="rId2"/>
+    <hyperlink ref="G17" r:id="rId3"/>
+    <hyperlink ref="G19" r:id="rId4"/>
+    <hyperlink ref="G22" r:id="rId5"/>
+    <hyperlink ref="G24" r:id="rId6"/>
+    <hyperlink ref="G23" r:id="rId7"/>
     <hyperlink ref="G2" r:id="rId8"/>
-    <hyperlink ref="G13" r:id="rId9"/>
-    <hyperlink ref="G12" r:id="rId10"/>
+    <hyperlink ref="G14" r:id="rId9"/>
+    <hyperlink ref="G13" r:id="rId10"/>
     <hyperlink ref="G7" r:id="rId11"/>
     <hyperlink ref="G6" r:id="rId12"/>
     <hyperlink ref="G8" r:id="rId13"/>
     <hyperlink ref="G9" r:id="rId14"/>
-    <hyperlink ref="G10" r:id="rId15"/>
-    <hyperlink ref="G11" r:id="rId16"/>
-    <hyperlink ref="G24" r:id="rId17"/>
+    <hyperlink ref="G11" r:id="rId15"/>
+    <hyperlink ref="G12" r:id="rId16"/>
+    <hyperlink ref="G25" r:id="rId17"/>
     <hyperlink ref="K3" r:id="rId18"/>
-    <hyperlink ref="K5" r:id="rId19"/>
-    <hyperlink ref="G19" r:id="rId20"/>
+    <hyperlink ref="K4" r:id="rId19"/>
+    <hyperlink ref="G20" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="301" verticalDpi="300" r:id="rId21"/>

--- a/trunk/EnhancedMorseDecoder/Decoder_PCB_BOM.xlsx
+++ b/trunk/EnhancedMorseDecoder/Decoder_PCB_BOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="112">
   <si>
     <t>Reference Designator</t>
   </si>
@@ -147,9 +147,6 @@
     <t>P240KFCT-ND</t>
   </si>
   <si>
-    <t>RED = part not chosen</t>
-  </si>
-  <si>
     <t>C20</t>
   </si>
   <si>
@@ -188,24 +185,6 @@
     <t>1nF Ceramic Cap</t>
   </si>
   <si>
-    <t>Update:</t>
-  </si>
-  <si>
-    <t>part number</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>check description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enter size </t>
-  </si>
-  <si>
-    <t>enter tolerance and other notes</t>
-  </si>
-  <si>
     <t xml:space="preserve">LSR976-Z </t>
   </si>
   <si>
@@ -311,9 +290,6 @@
     <t>R4,R5</t>
   </si>
   <si>
-    <t>larger header</t>
-  </si>
-  <si>
     <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=P10.0CCT-ND</t>
   </si>
   <si>
@@ -356,15 +332,6 @@
     <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=P0.0ACT-ND</t>
   </si>
   <si>
-    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=A26509-40-ND</t>
-  </si>
-  <si>
-    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=A28564-ND</t>
-  </si>
-  <si>
-    <t>possibilities</t>
-  </si>
-  <si>
     <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=DSPIC33FJ128GP802-I/SO-ND</t>
   </si>
   <si>
@@ -399,6 +366,12 @@
   </si>
   <si>
     <t>Tank cap</t>
+  </si>
+  <si>
+    <t>16 pin header</t>
+  </si>
+  <si>
+    <t>Existing 2 Pin headers will be used</t>
   </si>
 </sst>
 </file>
@@ -607,9 +580,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -628,12 +598,276 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
+    <dxf>
+      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -658,267 +892,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -930,20 +903,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I25" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I25" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="A1:I25"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Reference Designator" dataDxfId="10"/>
-    <tableColumn id="2" name="Part Number" dataDxfId="9"/>
-    <tableColumn id="3" name="Description" dataDxfId="8"/>
-    <tableColumn id="4" name="Quantity per board" dataDxfId="7"/>
-    <tableColumn id="5" name="Price per Piece" dataDxfId="6"/>
-    <tableColumn id="6" name="Total Price" dataDxfId="5">
+    <tableColumn id="1" name="Reference Designator" dataDxfId="8"/>
+    <tableColumn id="2" name="Part Number" dataDxfId="7"/>
+    <tableColumn id="3" name="Description" dataDxfId="6"/>
+    <tableColumn id="4" name="Quantity per board" dataDxfId="5"/>
+    <tableColumn id="5" name="Price per Piece" dataDxfId="4"/>
+    <tableColumn id="6" name="Total Price" dataDxfId="3">
       <calculatedColumnFormula>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Link to vendor website" dataDxfId="4"/>
-    <tableColumn id="10" name="Size" dataDxfId="3" dataCellStyle="Hyperlink"/>
-    <tableColumn id="8" name="Notes" dataDxfId="2"/>
+    <tableColumn id="7" name="Link to vendor website" dataDxfId="2"/>
+    <tableColumn id="10" name="Size" dataDxfId="1" dataCellStyle="Hyperlink"/>
+    <tableColumn id="8" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1239,7 +1212,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,7 +1251,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>7</v>
@@ -1286,13 +1259,13 @@
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D2" s="12">
         <v>2</v>
@@ -1305,27 +1278,24 @@
         <v>0.114</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D3" s="24">
         <v>1</v>
@@ -1338,22 +1308,22 @@
         <v>0.8</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I3" s="13"/>
-      <c r="K3" s="17" t="s">
-        <v>106</v>
-      </c>
+      <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>114</v>
+      <c r="A4" s="35" t="s">
+        <v>103</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="23"/>
+      <c r="C4" s="23" t="s">
+        <v>111</v>
+      </c>
       <c r="D4" s="24"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11">
@@ -1363,16 +1333,16 @@
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
       <c r="I4" s="13"/>
-      <c r="K4" s="17" t="s">
-        <v>107</v>
-      </c>
+      <c r="K4" s="17"/>
     </row>
     <row r="5" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>91</v>
+      <c r="A5" s="35" t="s">
+        <v>110</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="23"/>
+      <c r="C5" s="23" t="s">
+        <v>111</v>
+      </c>
       <c r="D5" s="24"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11">
@@ -1380,18 +1350,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="15"/>
-      <c r="H5" s="28"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>78</v>
+      <c r="A6" s="28" t="s">
+        <v>71</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D6" s="7">
         <v>3</v>
@@ -1404,22 +1374,22 @@
         <v>3.1500000000000004</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="29"/>
+        <v>74</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="28"/>
     </row>
     <row r="7" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>63</v>
+        <v>75</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>56</v>
       </c>
       <c r="D7" s="24">
         <v>2</v>
@@ -1432,24 +1402,24 @@
         <v>1.06</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H7" s="16">
         <v>603</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D8" s="24">
         <v>2</v>
@@ -1462,24 +1432,24 @@
         <v>0.06</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H8" s="16">
         <v>603</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>80</v>
       </c>
       <c r="D9" s="24">
         <v>1</v>
@@ -1492,7 +1462,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H9" s="16">
         <v>805</v>
@@ -1501,13 +1471,13 @@
     </row>
     <row r="10" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D10" s="24">
         <v>2</v>
@@ -1520,24 +1490,24 @@
         <v>1.26</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H10" s="16">
         <v>1210</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D11" s="24">
         <v>1</v>
@@ -1550,24 +1520,24 @@
         <v>0.60499999999999998</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="H11" s="16">
         <v>1206</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>84</v>
+      <c r="C12" s="31" t="s">
+        <v>77</v>
       </c>
       <c r="D12" s="24">
         <v>1</v>
@@ -1580,13 +1550,13 @@
         <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H12" s="16">
         <v>805</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1594,10 +1564,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="12">
         <v>5</v>
@@ -1612,19 +1582,19 @@
       <c r="G13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="32">
         <v>805</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>14</v>
@@ -1646,15 +1616,15 @@
         <v>1210</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>15</v>
@@ -1670,24 +1640,24 @@
         <v>0.17199999999999999</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H15" s="16">
         <v>603</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="12">
         <v>2</v>
@@ -1764,11 +1734,11 @@
         <v>16</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="28" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -1796,14 +1766,14 @@
       <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>59</v>
+      <c r="A20" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D20" s="12">
         <v>1</v>
@@ -1816,24 +1786,24 @@
         <v>6.52</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
-        <v>74</v>
+      <c r="A21" s="28" t="s">
+        <v>67</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D21" s="12">
         <v>2</v>
@@ -1846,16 +1816,16 @@
         <v>9.76</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I21" s="14"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
-        <v>43</v>
+      <c r="A22" s="28" t="s">
+        <v>42</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>35</v>
@@ -1882,7 +1852,7 @@
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -1910,7 +1880,7 @@
       <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="28" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -1938,14 +1908,14 @@
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
-        <v>113</v>
+      <c r="A25" s="34" t="s">
+        <v>102</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D25" s="12">
         <v>3</v>
@@ -1958,12 +1928,12 @@
         <v>0.12</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H25" s="16">
         <v>805</v>
       </c>
-      <c r="I25" s="34"/>
+      <c r="I25" s="33"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -1993,47 +1963,33 @@
       <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="A29" s="9"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
-      <c r="C30" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="C31" s="6"/>
       <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="C32" s="6"/>
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="C34" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2055,14 +2011,12 @@
     <hyperlink ref="G11" r:id="rId15"/>
     <hyperlink ref="G12" r:id="rId16"/>
     <hyperlink ref="G25" r:id="rId17"/>
-    <hyperlink ref="K3" r:id="rId18"/>
-    <hyperlink ref="K4" r:id="rId19"/>
-    <hyperlink ref="G20" r:id="rId20"/>
+    <hyperlink ref="G20" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="301" verticalDpi="300" r:id="rId21"/>
+  <pageSetup orientation="portrait" horizontalDpi="301" verticalDpi="300" r:id="rId19"/>
   <tableParts count="1">
-    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId20"/>
   </tableParts>
 </worksheet>
 </file>
--- a/trunk/EnhancedMorseDecoder/Decoder_PCB_BOM.xlsx
+++ b/trunk/EnhancedMorseDecoder/Decoder_PCB_BOM.xlsx
@@ -7,14 +7,98 @@
     <workbookView xWindow="0" yWindow="120" windowWidth="2160" windowHeight="1170"/>
   </bookViews>
   <sheets>
-    <sheet name="PLL Board BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="Decoder BOM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Dylan</author>
+  </authors>
+  <commentList>
+    <comment ref="G4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dylan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+2 pin headers that are in stock will be used
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dylan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+2 pin headers that are in stock will be used</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dylan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Many in stock already
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="117">
   <si>
     <t>Reference Designator</t>
   </si>
@@ -167,9 +251,6 @@
     <t>R15</t>
   </si>
   <si>
-    <t>Size</t>
-  </si>
-  <si>
     <t>08055A102GAT2A</t>
   </si>
   <si>
@@ -372,17 +453,36 @@
   </si>
   <si>
     <t>Existing 2 Pin headers will be used</t>
+  </si>
+  <si>
+    <t>Actual # Purchased</t>
+  </si>
+  <si>
+    <t>Actual Price per Piece</t>
+  </si>
+  <si>
+    <t>Actual Total</t>
+  </si>
+  <si>
+    <t>Either this or a 10 ohm resistor will be used for R6</t>
+  </si>
+  <si>
+    <t>Package Size</t>
+  </si>
+  <si>
+    <t>Op amp for filter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0000"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,7 +545,19 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -522,7 +634,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -580,9 +692,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -600,16 +709,92 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="24">
     <dxf>
-      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.000"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -622,28 +807,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -656,18 +825,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -680,18 +843,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
       <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -704,168 +861,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -892,6 +887,267 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -903,20 +1159,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I25" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <autoFilter ref="A1:I25"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="Reference Designator" dataDxfId="8"/>
-    <tableColumn id="2" name="Part Number" dataDxfId="7"/>
-    <tableColumn id="3" name="Description" dataDxfId="6"/>
-    <tableColumn id="4" name="Quantity per board" dataDxfId="5"/>
-    <tableColumn id="5" name="Price per Piece" dataDxfId="4"/>
-    <tableColumn id="6" name="Total Price" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L26" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+  <autoFilter ref="A1:L26"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="Reference Designator" dataDxfId="19"/>
+    <tableColumn id="2" name="Part Number" dataDxfId="18"/>
+    <tableColumn id="3" name="Description" dataDxfId="17"/>
+    <tableColumn id="4" name="Quantity per board" dataDxfId="16"/>
+    <tableColumn id="5" name="Price per Piece" dataDxfId="15"/>
+    <tableColumn id="6" name="Total Price" dataDxfId="7">
       <calculatedColumnFormula>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Link to vendor website" dataDxfId="2"/>
-    <tableColumn id="10" name="Size" dataDxfId="1" dataCellStyle="Hyperlink"/>
-    <tableColumn id="8" name="Notes" dataDxfId="0"/>
+    <tableColumn id="12" name="Actual # Purchased" dataDxfId="6"/>
+    <tableColumn id="11" name="Actual Price per Piece" dataDxfId="4"/>
+    <tableColumn id="14" name="Actual Total" dataDxfId="5">
+      <calculatedColumnFormula>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="Link to vendor website" dataDxfId="14"/>
+    <tableColumn id="10" name="Package Size" dataDxfId="13" dataCellStyle="Hyperlink"/>
+    <tableColumn id="8" name="Notes" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1208,14 +1469,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
@@ -1223,12 +1484,13 @@
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="7" style="6" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" customWidth="1"/>
+    <col min="7" max="9" width="12.28515625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="45.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="47.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1248,24 +1510,33 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="6" customFormat="1">
       <c r="A2" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>50</v>
       </c>
       <c r="D2" s="12">
         <v>2</v>
@@ -1277,25 +1548,35 @@
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
         <v>0.114</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="40">
+        <v>10</v>
+      </c>
+      <c r="H2" s="41">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="I2" s="11">
+        <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="L2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="24">
         <v>1</v>
@@ -1307,61 +1588,91 @@
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
         <v>0.8</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="13"/>
-      <c r="K3" s="17"/>
-    </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
-        <v>103</v>
+      <c r="G3" s="42">
+        <v>5</v>
+      </c>
+      <c r="H3" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="I3" s="11">
+        <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
+        <v>4</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="13"/>
+      <c r="N3" s="17"/>
+    </row>
+    <row r="4" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="34" t="s">
+        <v>102</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="23" t="s">
-        <v>111</v>
-      </c>
+      <c r="C4" s="7"/>
       <c r="D4" s="24"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
         <v>0</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="13"/>
-      <c r="K4" s="17"/>
-    </row>
-    <row r="5" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="G4" s="42">
+        <v>0</v>
+      </c>
+      <c r="H4" s="43"/>
+      <c r="I4" s="11">
+        <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="23" t="s">
         <v>110</v>
       </c>
+      <c r="N4" s="17"/>
+    </row>
+    <row r="5" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="34" t="s">
+        <v>109</v>
+      </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="23" t="s">
-        <v>111</v>
-      </c>
+      <c r="C5" s="7"/>
       <c r="D5" s="24"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
         <v>0</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="G5" s="42">
+        <v>0</v>
+      </c>
+      <c r="H5" s="43"/>
+      <c r="I5" s="11">
+        <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="D6" s="7">
         <v>3</v>
@@ -1373,23 +1684,29 @@
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
         <v>3.1500000000000004</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="42"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="11">
+        <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="27"/>
+    </row>
+    <row r="7" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>56</v>
+      <c r="B7" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>55</v>
       </c>
       <c r="D7" s="24">
         <v>2</v>
@@ -1401,25 +1718,35 @@
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
         <v>1.06</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="16">
+      <c r="G7" s="42">
+        <v>10</v>
+      </c>
+      <c r="H7" s="43">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I7" s="11">
+        <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
+        <v>0.53</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="16">
         <v>603</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="24">
         <v>2</v>
@@ -1431,25 +1758,35 @@
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
         <v>0.06</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="42">
+        <v>20</v>
+      </c>
+      <c r="H8" s="43">
+        <v>0.03</v>
+      </c>
+      <c r="I8" s="11">
+        <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
+        <v>0.6</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="16">
+        <v>603</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="37" t="s">
         <v>79</v>
-      </c>
-      <c r="H8" s="16">
-        <v>603</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>80</v>
       </c>
       <c r="D9" s="24">
         <v>1</v>
@@ -1461,433 +1798,575 @@
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" s="16">
+      <c r="G9" s="42">
+        <v>20</v>
+      </c>
+      <c r="H9" s="43">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I9" s="11">
+        <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="16">
         <v>805</v>
       </c>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="1:14" s="35" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" t="s">
-        <v>105</v>
+        <v>85</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>76</v>
       </c>
       <c r="D10" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="10">
-        <v>0.63</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="F10" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>1.26</v>
-      </c>
-      <c r="G10" s="15" t="s">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G10" s="44">
+        <v>10</v>
+      </c>
+      <c r="H10" s="45">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="I10" s="11">
+        <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="38">
+        <v>805</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="H10" s="16">
-        <v>1210</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="D11" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="10">
-        <v>0.60499999999999998</v>
+        <v>0.63</v>
       </c>
       <c r="F11" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" s="16">
-        <v>1206</v>
-      </c>
-      <c r="I11" s="7" t="s">
+        <v>1.26</v>
+      </c>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="11">
+        <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" s="16">
+        <v>1210</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="C12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>77</v>
       </c>
       <c r="D12" s="24">
         <v>1</v>
       </c>
       <c r="E12" s="10">
-        <v>1</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="F12" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="G12" s="44">
+        <v>20</v>
+      </c>
+      <c r="H12" s="45">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="I12" s="11">
+        <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
+        <v>12.1</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="16">
+        <v>1206</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1">
+      <c r="A13" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="24">
         <v>1</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H12" s="16">
-        <v>805</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="12">
-        <v>5</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0.33800000000000002</v>
+      <c r="E13" s="10">
+        <v>1</v>
       </c>
       <c r="F13" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>1.6900000000000002</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="32">
+        <v>1</v>
+      </c>
+      <c r="G13" s="46">
+        <v>10</v>
+      </c>
+      <c r="H13" s="47">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="I13" s="11">
+        <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="16">
         <v>805</v>
       </c>
-      <c r="I13" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="8" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="D14" s="12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E14" s="11">
-        <v>0.27</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="F14" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>1.8900000000000001</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="16">
-        <v>1210</v>
-      </c>
-      <c r="I14" s="14" t="s">
+        <v>1.6900000000000002</v>
+      </c>
+      <c r="G14" s="42">
+        <v>25</v>
+      </c>
+      <c r="H14" s="43">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="I14" s="11">
+        <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
+        <v>7.3</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="31">
+        <v>805</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="C15" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E15" s="11">
-        <v>4.2999999999999997E-2</v>
+        <v>0.27</v>
       </c>
       <c r="F15" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="16">
-        <v>603</v>
-      </c>
-      <c r="I15" s="14" t="s">
+        <v>1.8900000000000001</v>
+      </c>
+      <c r="G15" s="42">
+        <v>50</v>
+      </c>
+      <c r="H15" s="43">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="I15" s="11">
+        <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
+        <v>12.8</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="16">
+        <v>1210</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>12</v>
-      </c>
       <c r="C16" s="14" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D16" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16" s="11">
-        <v>0.47699999999999998</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="F16" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>0.95399999999999996</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>23</v>
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="G16" s="42">
+        <v>25</v>
+      </c>
+      <c r="H16" s="43">
+        <v>0.06</v>
+      </c>
+      <c r="I16" s="11">
+        <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
+        <v>1.5</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="16">
+        <v>603</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="D17" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="11">
-        <v>8.6999999999999994E-2</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="F17" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="16">
-        <v>1206</v>
-      </c>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="G17" s="42">
+        <v>10</v>
+      </c>
+      <c r="H17" s="43">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="I17" s="11">
+        <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
+        <v>4.46</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="39">
+        <v>2917</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D18" s="12">
         <v>1</v>
       </c>
       <c r="E18" s="11">
-        <v>4.4999999999999998E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="F18" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>25</v>
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="G18" s="42">
+        <v>15</v>
+      </c>
+      <c r="H18" s="43">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="I18" s="11">
+        <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
+        <v>1.3049999999999999</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="16">
+        <v>1206</v>
+      </c>
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D19" s="12">
         <v>1</v>
       </c>
       <c r="E19" s="11">
-        <v>0.1</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F19" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>0.1</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="16">
-        <v>1206</v>
-      </c>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
-        <v>52</v>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G19" s="42">
+        <v>15</v>
+      </c>
+      <c r="H19" s="43">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I19" s="11">
+        <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
+        <v>0.24</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="16">
+        <v>805</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="6" customFormat="1">
+      <c r="A20" s="27" t="s">
+        <v>25</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="D20" s="12">
         <v>1</v>
       </c>
       <c r="E20" s="11">
-        <v>6.52</v>
+        <v>0.1</v>
       </c>
       <c r="F20" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>0.1</v>
+      </c>
+      <c r="G20" s="42">
+        <v>10</v>
+      </c>
+      <c r="H20" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="I20" s="11">
+        <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="16">
+        <v>1206</v>
+      </c>
+      <c r="L20" s="14"/>
+    </row>
+    <row r="21" spans="1:12" s="6" customFormat="1">
+      <c r="A21" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="12">
+        <v>1</v>
+      </c>
+      <c r="E21" s="11">
         <v>6.52</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="12">
-        <v>2</v>
-      </c>
-      <c r="E21" s="11">
-        <v>4.88</v>
       </c>
       <c r="F21" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>9.76</v>
-      </c>
-      <c r="G21" s="15" t="s">
+        <v>6.52</v>
+      </c>
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="11">
+        <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="D22" s="12">
         <v>2</v>
       </c>
       <c r="E22" s="11">
-        <v>0.1</v>
+        <v>4.88</v>
       </c>
       <c r="F22" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>0.2</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="16">
-        <v>1206</v>
-      </c>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
-        <v>28</v>
+        <v>9.76</v>
+      </c>
+      <c r="G22" s="42"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="11">
+        <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D23" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="11">
         <v>0.1</v>
       </c>
       <c r="F23" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>0.2</v>
+      </c>
+      <c r="G23" s="42">
+        <v>10</v>
+      </c>
+      <c r="H23" s="43">
         <v>0.1</v>
       </c>
-      <c r="G23" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="16">
+      <c r="I23" s="11">
+        <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
+        <v>1</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="16">
         <v>1206</v>
       </c>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
-        <v>30</v>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="27" t="s">
+        <v>28</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" s="12">
         <v>1</v>
@@ -1899,124 +2378,193 @@
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
         <v>0.1</v>
       </c>
-      <c r="G24" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="16">
+      <c r="G24" s="42">
+        <v>10</v>
+      </c>
+      <c r="H24" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="I24" s="11">
+        <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
+        <v>1</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" s="16">
         <v>1206</v>
       </c>
-      <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
-        <v>102</v>
+      <c r="L24" s="14"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="27" t="s">
+        <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="D25" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25" s="11">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="F25" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="42">
+        <v>10</v>
+      </c>
+      <c r="H25" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="I25" s="11">
+        <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
+        <v>1</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" s="16">
+        <v>1206</v>
+      </c>
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="12">
+        <v>3</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="F26" s="11">
+        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
         <v>0.12</v>
       </c>
-      <c r="G25" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="H25" s="16">
+      <c r="G26" s="42">
+        <v>0</v>
+      </c>
+      <c r="H26" s="43"/>
+      <c r="I26" s="11">
+        <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="K26" s="16">
         <v>805</v>
       </c>
-      <c r="I25" s="33"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="L26" s="32"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D27" s="18">
         <f>SUM(Table1[Quantity per board])</f>
-        <v>46</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19">
+        <v>47</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19">
         <f>SUM(Table1[Total Price])</f>
-        <v>29.856999999999999</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="6"/>
+        <v>29.913000000000004</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19">
+        <f>SUM(Table1[Actual Total])</f>
+        <v>51.925000000000004</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="C29" s="6"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="9"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="20"/>
       <c r="C31" s="6"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:12">
       <c r="C32" s="6"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5">
       <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="3:5">
       <c r="C34" s="6"/>
     </row>
+    <row r="35" spans="3:5">
+      <c r="C35" s="6"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="F27">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G16" r:id="rId1"/>
-    <hyperlink ref="G18" r:id="rId2"/>
-    <hyperlink ref="G17" r:id="rId3"/>
-    <hyperlink ref="G19" r:id="rId4"/>
-    <hyperlink ref="G22" r:id="rId5"/>
-    <hyperlink ref="G24" r:id="rId6"/>
-    <hyperlink ref="G23" r:id="rId7"/>
-    <hyperlink ref="G2" r:id="rId8"/>
-    <hyperlink ref="G14" r:id="rId9"/>
-    <hyperlink ref="G13" r:id="rId10"/>
-    <hyperlink ref="G7" r:id="rId11"/>
-    <hyperlink ref="G6" r:id="rId12"/>
-    <hyperlink ref="G8" r:id="rId13"/>
-    <hyperlink ref="G9" r:id="rId14"/>
-    <hyperlink ref="G11" r:id="rId15"/>
-    <hyperlink ref="G12" r:id="rId16"/>
-    <hyperlink ref="G25" r:id="rId17"/>
-    <hyperlink ref="G20" r:id="rId18"/>
+    <hyperlink ref="J17" r:id="rId1"/>
+    <hyperlink ref="J19" r:id="rId2"/>
+    <hyperlink ref="J18" r:id="rId3"/>
+    <hyperlink ref="J20" r:id="rId4"/>
+    <hyperlink ref="J23" r:id="rId5"/>
+    <hyperlink ref="J25" r:id="rId6"/>
+    <hyperlink ref="J24" r:id="rId7"/>
+    <hyperlink ref="J2" r:id="rId8"/>
+    <hyperlink ref="J15" r:id="rId9"/>
+    <hyperlink ref="J14" r:id="rId10"/>
+    <hyperlink ref="J7" r:id="rId11"/>
+    <hyperlink ref="J6" r:id="rId12"/>
+    <hyperlink ref="J8" r:id="rId13"/>
+    <hyperlink ref="J9" r:id="rId14"/>
+    <hyperlink ref="J12" r:id="rId15"/>
+    <hyperlink ref="J13" r:id="rId16"/>
+    <hyperlink ref="J26" r:id="rId17"/>
+    <hyperlink ref="J21" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="301" verticalDpi="300" r:id="rId19"/>
+  <legacyDrawing r:id="rId20"/>
   <tableParts count="1">
-    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
 </file>
--- a/trunk/EnhancedMorseDecoder/Decoder_PCB_BOM.xlsx
+++ b/trunk/EnhancedMorseDecoder/Decoder_PCB_BOM.xlsx
@@ -65,6 +65,30 @@
           </rPr>
           <t xml:space="preserve">
 2 pin headers that are in stock will be used</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dylan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Many in stock</t>
         </r>
       </text>
     </comment>
@@ -742,57 +766,90 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="18">
     <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="165" formatCode="0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.000"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -810,7 +867,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.000"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -861,6 +918,162 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -887,267 +1100,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1159,25 +1111,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L26" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L26" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="A1:L26"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Reference Designator" dataDxfId="19"/>
-    <tableColumn id="2" name="Part Number" dataDxfId="18"/>
-    <tableColumn id="3" name="Description" dataDxfId="17"/>
-    <tableColumn id="4" name="Quantity per board" dataDxfId="16"/>
-    <tableColumn id="5" name="Price per Piece" dataDxfId="15"/>
-    <tableColumn id="6" name="Total Price" dataDxfId="7">
+    <tableColumn id="1" name="Reference Designator" dataDxfId="11"/>
+    <tableColumn id="2" name="Part Number" dataDxfId="10"/>
+    <tableColumn id="3" name="Description" dataDxfId="9"/>
+    <tableColumn id="4" name="Quantity per board" dataDxfId="8"/>
+    <tableColumn id="5" name="Price per Piece" dataDxfId="7"/>
+    <tableColumn id="6" name="Total Price" dataDxfId="6">
       <calculatedColumnFormula>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Actual # Purchased" dataDxfId="6"/>
+    <tableColumn id="12" name="Actual # Purchased" dataDxfId="5"/>
     <tableColumn id="11" name="Actual Price per Piece" dataDxfId="4"/>
-    <tableColumn id="14" name="Actual Total" dataDxfId="5">
+    <tableColumn id="14" name="Actual Total" dataDxfId="3">
       <calculatedColumnFormula>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Link to vendor website" dataDxfId="14"/>
-    <tableColumn id="10" name="Package Size" dataDxfId="13" dataCellStyle="Hyperlink"/>
-    <tableColumn id="8" name="Notes" dataDxfId="12"/>
+    <tableColumn id="7" name="Link to vendor website" dataDxfId="2"/>
+    <tableColumn id="10" name="Package Size" dataDxfId="1" dataCellStyle="Hyperlink"/>
+    <tableColumn id="8" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1473,7 +1425,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1684,7 +1636,9 @@
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
         <v>3.1500000000000004</v>
       </c>
-      <c r="G6" s="42"/>
+      <c r="G6" s="42">
+        <v>0</v>
+      </c>
       <c r="H6" s="43"/>
       <c r="I6" s="11">
         <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
@@ -2268,11 +2222,15 @@
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
         <v>6.52</v>
       </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
+      <c r="G21" s="42">
+        <v>4</v>
+      </c>
+      <c r="H21" s="43">
+        <v>6.52</v>
+      </c>
       <c r="I21" s="11">
         <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
-        <v>0</v>
+        <v>26.08</v>
       </c>
       <c r="J21" s="15" t="s">
         <v>97</v>
@@ -2304,11 +2262,15 @@
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
         <v>9.76</v>
       </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="43"/>
+      <c r="G22" s="42">
+        <v>10</v>
+      </c>
+      <c r="H22" s="43">
+        <v>4.88</v>
+      </c>
       <c r="I22" s="11">
         <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
-        <v>0</v>
+        <v>48.8</v>
       </c>
       <c r="J22" s="15" t="s">
         <v>63</v>
@@ -2487,7 +2449,7 @@
       <c r="H27" s="19"/>
       <c r="I27" s="19">
         <f>SUM(Table1[Actual Total])</f>
-        <v>51.925000000000004</v>
+        <v>126.80499999999999</v>
       </c>
       <c r="J27" s="6"/>
       <c r="L27" s="6"/>
@@ -2533,10 +2495,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>

--- a/trunk/EnhancedMorseDecoder/Decoder_PCB_BOM.xlsx
+++ b/trunk/EnhancedMorseDecoder/Decoder_PCB_BOM.xlsx
@@ -92,6 +92,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="C10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dylan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This was reccommened over the resistor</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G26" authorId="0">
       <text>
         <r>
@@ -464,9 +488,6 @@
     <t>TAJB226K020RNJ</t>
   </si>
   <si>
-    <t>C9</t>
-  </si>
-  <si>
     <t>C14,C16,C18,C12,C15</t>
   </si>
   <si>
@@ -495,6 +516,9 @@
   </si>
   <si>
     <t>Op amp for filter</t>
+  </si>
+  <si>
+    <t>C9, C13, C10</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1449,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1462,19 +1486,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>7</v>
@@ -1584,13 +1608,13 @@
         <v>51</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N4" s="17"/>
     </row>
     <row r="5" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1613,7 +1637,7 @@
         <v>51</v>
       </c>
       <c r="L5" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1">
@@ -1807,12 +1831,12 @@
         <v>805</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="26" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>105</v>
@@ -1821,14 +1845,14 @@
         <v>104</v>
       </c>
       <c r="D11" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="10">
         <v>0.63</v>
       </c>
       <c r="F11" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>1.26</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="G11" s="42"/>
       <c r="H11" s="43"/>
@@ -1843,7 +1867,7 @@
         <v>1210</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1">
@@ -1968,7 +1992,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>46</v>
@@ -2279,7 +2303,7 @@
         <v>51</v>
       </c>
       <c r="L22" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2438,12 +2462,12 @@
       </c>
       <c r="D27" s="18">
         <f>SUM(Table1[Quantity per board])</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="19">
         <f>SUM(Table1[Total Price])</f>
-        <v>29.913000000000004</v>
+        <v>30.543000000000006</v>
       </c>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>

--- a/trunk/EnhancedMorseDecoder/Decoder_PCB_BOM.xlsx
+++ b/trunk/EnhancedMorseDecoder/Decoder_PCB_BOM.xlsx
@@ -116,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G26" authorId="0">
+    <comment ref="G25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="119">
   <si>
     <t>Reference Designator</t>
   </si>
@@ -329,9 +329,6 @@
     <t>Red LED</t>
   </si>
   <si>
-    <t>These are backup for R6</t>
-  </si>
-  <si>
     <t>http://www.newark.com/vishay-dale/crcw060310k0fkea/resistor-thick-film-10kohm-100mw/dp/52K8062?Ntt=52K8062</t>
   </si>
   <si>
@@ -380,9 +377,6 @@
     <t>R18,R19,R7</t>
   </si>
   <si>
-    <t>J1, J2, J3</t>
-  </si>
-  <si>
     <t>70543-0001</t>
   </si>
   <si>
@@ -416,9 +410,6 @@
     <t>ERJ-3GEYJ331V</t>
   </si>
   <si>
-    <t>R4,R5</t>
-  </si>
-  <si>
     <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=P10.0CCT-ND</t>
   </si>
   <si>
@@ -476,9 +467,6 @@
     <t>R23,R2</t>
   </si>
   <si>
-    <t>6 pin header</t>
-  </si>
-  <si>
     <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=478-1683-1-ND</t>
   </si>
   <si>
@@ -494,9 +482,6 @@
     <t>Tank cap</t>
   </si>
   <si>
-    <t>16 pin header</t>
-  </si>
-  <si>
     <t>Existing 2 Pin headers will be used</t>
   </si>
   <si>
@@ -519,6 +504,27 @@
   </si>
   <si>
     <t>C9, C13, C10</t>
+  </si>
+  <si>
+    <t>Either this or ferrite bead will be used for R6</t>
+  </si>
+  <si>
+    <t>R4,R5, R8</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>X5</t>
+  </si>
+  <si>
+    <t>X1, X2, X6</t>
+  </si>
+  <si>
+    <t>6 pin header, , Pitch 0.100</t>
+  </si>
+  <si>
+    <t>16 pin header, , Pitch 0.100</t>
   </si>
 </sst>
 </file>
@@ -682,7 +688,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -779,327 +785,12 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.000"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1124,6 +815,315 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.000"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1135,25 +1135,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L26" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="A1:L26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L25" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A1:L25"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Reference Designator" dataDxfId="11"/>
-    <tableColumn id="2" name="Part Number" dataDxfId="10"/>
-    <tableColumn id="3" name="Description" dataDxfId="9"/>
-    <tableColumn id="4" name="Quantity per board" dataDxfId="8"/>
-    <tableColumn id="5" name="Price per Piece" dataDxfId="7"/>
-    <tableColumn id="6" name="Total Price" dataDxfId="6">
+    <tableColumn id="1" name="Reference Designator" dataDxfId="13"/>
+    <tableColumn id="2" name="Part Number" dataDxfId="12"/>
+    <tableColumn id="3" name="Description" dataDxfId="11"/>
+    <tableColumn id="4" name="Quantity per board" dataDxfId="10"/>
+    <tableColumn id="5" name="Price per Piece" dataDxfId="9"/>
+    <tableColumn id="6" name="Total Price" dataDxfId="8">
       <calculatedColumnFormula>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Actual # Purchased" dataDxfId="5"/>
-    <tableColumn id="11" name="Actual Price per Piece" dataDxfId="4"/>
-    <tableColumn id="14" name="Actual Total" dataDxfId="3">
+    <tableColumn id="12" name="Actual # Purchased" dataDxfId="7"/>
+    <tableColumn id="11" name="Actual Price per Piece" dataDxfId="6"/>
+    <tableColumn id="14" name="Actual Total" dataDxfId="5">
       <calculatedColumnFormula>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Link to vendor website" dataDxfId="2"/>
-    <tableColumn id="10" name="Package Size" dataDxfId="1" dataCellStyle="Hyperlink"/>
-    <tableColumn id="8" name="Notes" dataDxfId="0"/>
+    <tableColumn id="7" name="Link to vendor website" dataDxfId="4"/>
+    <tableColumn id="10" name="Package Size" dataDxfId="3" dataCellStyle="Hyperlink"/>
+    <tableColumn id="8" name="Notes" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1446,10 +1446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1486,19 +1486,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>7</v>
@@ -1506,7 +1506,7 @@
     </row>
     <row r="2" spans="1:14" s="6" customFormat="1">
       <c r="A2" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>48</v>
@@ -1546,13 +1546,13 @@
     </row>
     <row r="3" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="24">
         <v>1</v>
@@ -1575,7 +1575,7 @@
         <v>4</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>51</v>
@@ -1585,11 +1585,15 @@
     </row>
     <row r="4" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="34" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="24"/>
+      <c r="C4" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="24">
+        <v>1</v>
+      </c>
       <c r="E4" s="10"/>
       <c r="F4" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
@@ -1608,17 +1612,21 @@
         <v>51</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="N4" s="17"/>
     </row>
     <row r="5" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="34" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="24"/>
+      <c r="C5" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="24">
+        <v>1</v>
+      </c>
       <c r="E5" s="10"/>
       <c r="F5" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
@@ -1637,18 +1645,18 @@
         <v>51</v>
       </c>
       <c r="L5" s="23" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="D6" s="7">
         <v>3</v>
@@ -1669,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K6" s="28" t="s">
         <v>51</v>
@@ -1678,13 +1686,13 @@
     </row>
     <row r="7" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="24">
         <v>2</v>
@@ -1707,34 +1715,34 @@
         <v>0.53</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K7" s="16">
         <v>603</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="26" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D8" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="10">
         <v>0.03</v>
       </c>
       <c r="F8" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="G8" s="42">
         <v>20</v>
@@ -1747,24 +1755,24 @@
         <v>0.6</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K8" s="16">
         <v>603</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="26" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D9" s="24">
         <v>1</v>
@@ -1787,22 +1795,24 @@
         <v>1.4000000000000001</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K9" s="16">
         <v>805</v>
       </c>
-      <c r="L9" s="13"/>
+      <c r="L9" s="13" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="10" spans="1:14" s="35" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="26" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10" s="24">
         <v>1</v>
@@ -1825,24 +1835,24 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K10" s="38">
         <v>805</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="26" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D11" s="24">
         <v>3</v>
@@ -1861,24 +1871,24 @@
         <v>0</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K11" s="16">
         <v>1210</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D12" s="24">
         <v>1</v>
@@ -1901,430 +1911,428 @@
         <v>12.1</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K12" s="16">
         <v>1206</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1">
-      <c r="A13" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="24">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10">
-        <v>1</v>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="12">
+        <v>5</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.33800000000000002</v>
       </c>
       <c r="F13" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>1</v>
-      </c>
-      <c r="G13" s="46">
-        <v>10</v>
-      </c>
-      <c r="H13" s="47">
-        <v>5.6000000000000001E-2</v>
+        <v>1.6900000000000002</v>
+      </c>
+      <c r="G13" s="42">
+        <v>25</v>
+      </c>
+      <c r="H13" s="43">
+        <v>0.29199999999999998</v>
       </c>
       <c r="I13" s="11">
         <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K13" s="16">
+        <v>7.3</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="31">
         <v>805</v>
       </c>
-      <c r="L13" s="13" t="s">
-        <v>53</v>
+      <c r="L13" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="8" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D14" s="12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E14" s="11">
-        <v>0.33800000000000002</v>
+        <v>0.27</v>
       </c>
       <c r="F14" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>1.6900000000000002</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="G14" s="42">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H14" s="43">
-        <v>0.29199999999999998</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="I14" s="11">
         <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
-        <v>7.3</v>
+        <v>12.8</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="31">
-        <v>805</v>
+        <v>13</v>
+      </c>
+      <c r="K14" s="16">
+        <v>1210</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>46</v>
+        <v>68</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E15" s="11">
-        <v>0.27</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="F15" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>1.8900000000000001</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="G15" s="42">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H15" s="43">
-        <v>0.25600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I15" s="11">
         <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
-        <v>12.8</v>
+        <v>1.5</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="K15" s="16">
-        <v>1210</v>
+        <v>603</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>68</v>
+      <c r="A16" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D16" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" s="11">
-        <v>4.2999999999999997E-2</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="F16" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>0.17199999999999999</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="G16" s="42">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H16" s="43">
-        <v>0.06</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="I16" s="11">
         <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
-        <v>1.5</v>
+        <v>4.46</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="K16" s="16">
-        <v>603</v>
+        <v>11</v>
+      </c>
+      <c r="K16" s="39">
+        <v>2917</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>41</v>
+      <c r="A17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="D17" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="11">
-        <v>0.47699999999999998</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="F17" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>0.95399999999999996</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="G17" s="42">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H17" s="43">
-        <v>0.44600000000000001</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="I17" s="11">
         <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
-        <v>4.46</v>
+        <v>1.3049999999999999</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="39">
-        <v>2917</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>16</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="K17" s="16">
+        <v>1206</v>
+      </c>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D18" s="12">
         <v>1</v>
       </c>
       <c r="E18" s="11">
-        <v>8.6999999999999994E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F18" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>8.6999999999999994E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="G18" s="42">
         <v>15</v>
       </c>
       <c r="H18" s="43">
-        <v>8.6999999999999994E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="I18" s="11">
         <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
-        <v>1.3049999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K18" s="16">
-        <v>1206</v>
-      </c>
-      <c r="L18" s="14"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="7" t="s">
-        <v>17</v>
+        <v>805</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="6" customFormat="1">
+      <c r="A19" s="27" t="s">
+        <v>25</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D19" s="12">
         <v>1</v>
       </c>
       <c r="E19" s="11">
-        <v>4.4999999999999998E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F19" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>4.4999999999999998E-2</v>
+        <v>0.1</v>
       </c>
       <c r="G19" s="42">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H19" s="43">
-        <v>1.6E-2</v>
+        <v>0.1</v>
       </c>
       <c r="I19" s="11">
         <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="K19" s="16">
-        <v>805</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>92</v>
-      </c>
+        <v>1206</v>
+      </c>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:12" s="6" customFormat="1">
       <c r="A20" s="27" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="D20" s="12">
         <v>1</v>
       </c>
       <c r="E20" s="11">
-        <v>0.1</v>
+        <v>6.52</v>
       </c>
       <c r="F20" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>0.1</v>
+        <v>6.52</v>
       </c>
       <c r="G20" s="42">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H20" s="43">
-        <v>0.1</v>
+        <v>6.52</v>
       </c>
       <c r="I20" s="11">
         <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
-        <v>1</v>
+        <v>26.08</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="16">
-        <v>1206</v>
-      </c>
-      <c r="L20" s="14"/>
-    </row>
-    <row r="21" spans="1:12" s="6" customFormat="1">
+        <v>94</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="27" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="D21" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="11">
-        <v>6.52</v>
+        <v>4.88</v>
       </c>
       <c r="F21" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>6.52</v>
+        <v>9.76</v>
       </c>
       <c r="G21" s="42">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H21" s="43">
-        <v>6.52</v>
+        <v>4.88</v>
       </c>
       <c r="I21" s="11">
         <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
-        <v>26.08</v>
+        <v>48.8</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="K21" s="16" t="s">
         <v>51</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="27" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D22" s="12">
         <v>2</v>
       </c>
       <c r="E22" s="11">
-        <v>4.88</v>
+        <v>0.1</v>
       </c>
       <c r="F22" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>9.76</v>
+        <v>0.2</v>
       </c>
       <c r="G22" s="42">
         <v>10</v>
       </c>
       <c r="H22" s="43">
-        <v>4.88</v>
+        <v>0.1</v>
       </c>
       <c r="I22" s="11">
         <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
-        <v>48.8</v>
+        <v>1</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K22" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>115</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="K22" s="16">
+        <v>1206</v>
+      </c>
+      <c r="L22" s="14"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="27" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D23" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="11">
         <v>0.1</v>
       </c>
       <c r="F23" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G23" s="42">
         <v>10</v>
@@ -2337,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K23" s="16">
         <v>1206</v>
@@ -2346,13 +2354,13 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D24" s="12">
         <v>1</v>
@@ -2375,7 +2383,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K24" s="16">
         <v>1206</v>
@@ -2383,102 +2391,73 @@
       <c r="L24" s="14"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="27" t="s">
-        <v>30</v>
+      <c r="A25" s="33" t="s">
+        <v>98</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="D25" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25" s="11">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F25" s="11">
         <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="G25" s="42">
-        <v>10</v>
-      </c>
-      <c r="H25" s="43">
-        <v>0.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" s="43"/>
       <c r="I25" s="11">
         <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="K25" s="16">
-        <v>1206</v>
-      </c>
-      <c r="L25" s="14"/>
+        <v>805</v>
+      </c>
+      <c r="L25" s="32"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="12">
-        <v>3</v>
-      </c>
-      <c r="E26" s="11">
-        <v>0.04</v>
-      </c>
-      <c r="F26" s="11">
-        <f>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</f>
-        <v>0.12</v>
-      </c>
-      <c r="G26" s="42">
-        <v>0</v>
-      </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="11">
-        <f>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="K26" s="16">
-        <v>805</v>
-      </c>
-      <c r="L26" s="32"/>
+      <c r="A26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="18">
+        <f>SUM(Table1[Quantity per board])</f>
+        <v>50</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="19">
+        <f>SUM(Table1[Total Price])</f>
+        <v>29.573</v>
+      </c>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19">
+        <f>SUM(Table1[Actual Total])</f>
+        <v>126.24499999999999</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="L26" s="6"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="18">
-        <f>SUM(Table1[Quantity per board])</f>
-        <v>48</v>
-      </c>
+      <c r="D27" s="18"/>
       <c r="E27" s="18"/>
-      <c r="F27" s="19">
-        <f>SUM(Table1[Total Price])</f>
-        <v>30.543000000000006</v>
-      </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19">
-        <f>SUM(Table1[Actual Total])</f>
-        <v>126.80499999999999</v>
-      </c>
-      <c r="J27" s="6"/>
-      <c r="L27" s="6"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
     </row>
     <row r="28" spans="1:12">
+      <c r="C28" s="6"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
@@ -2487,70 +2466,60 @@
       <c r="I28" s="18"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="C29" s="6"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
+      <c r="A29" s="9"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="9"/>
-      <c r="C30" s="4"/>
+      <c r="A30" s="20"/>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="20"/>
       <c r="C31" s="6"/>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:12">
       <c r="C32" s="6"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="3:5">
+    <row r="33" spans="3:3">
       <c r="C33" s="6"/>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="3:5">
+    </row>
+    <row r="34" spans="3:3">
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="3:5">
-      <c r="C35" s="6"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="F26">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="J17" r:id="rId1"/>
-    <hyperlink ref="J19" r:id="rId2"/>
-    <hyperlink ref="J18" r:id="rId3"/>
-    <hyperlink ref="J20" r:id="rId4"/>
-    <hyperlink ref="J23" r:id="rId5"/>
-    <hyperlink ref="J25" r:id="rId6"/>
-    <hyperlink ref="J24" r:id="rId7"/>
+    <hyperlink ref="J16" r:id="rId1"/>
+    <hyperlink ref="J18" r:id="rId2"/>
+    <hyperlink ref="J17" r:id="rId3"/>
+    <hyperlink ref="J19" r:id="rId4"/>
+    <hyperlink ref="J22" r:id="rId5"/>
+    <hyperlink ref="J24" r:id="rId6"/>
+    <hyperlink ref="J23" r:id="rId7"/>
     <hyperlink ref="J2" r:id="rId8"/>
-    <hyperlink ref="J15" r:id="rId9"/>
-    <hyperlink ref="J14" r:id="rId10"/>
+    <hyperlink ref="J14" r:id="rId9"/>
+    <hyperlink ref="J13" r:id="rId10"/>
     <hyperlink ref="J7" r:id="rId11"/>
     <hyperlink ref="J6" r:id="rId12"/>
     <hyperlink ref="J8" r:id="rId13"/>
     <hyperlink ref="J9" r:id="rId14"/>
     <hyperlink ref="J12" r:id="rId15"/>
-    <hyperlink ref="J13" r:id="rId16"/>
-    <hyperlink ref="J26" r:id="rId17"/>
-    <hyperlink ref="J21" r:id="rId18"/>
+    <hyperlink ref="J25" r:id="rId16"/>
+    <hyperlink ref="J20" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="301" verticalDpi="300" r:id="rId19"/>
-  <legacyDrawing r:id="rId20"/>
+  <pageSetup orientation="portrait" horizontalDpi="301" verticalDpi="300" r:id="rId18"/>
+  <legacyDrawing r:id="rId19"/>
   <tableParts count="1">
-    <tablePart r:id="rId21"/>
+    <tablePart r:id="rId20"/>
   </tableParts>
 </worksheet>
 </file>
--- a/trunk/EnhancedMorseDecoder/Decoder_PCB_BOM.xlsx
+++ b/trunk/EnhancedMorseDecoder/Decoder_PCB_BOM.xlsx
@@ -521,10 +521,10 @@
     <t>X1, X2, X6</t>
   </si>
   <si>
-    <t>6 pin header, , Pitch 0.100</t>
-  </si>
-  <si>
-    <t>16 pin header, , Pitch 0.100</t>
+    <t>16 pin header, Pitch 0.100</t>
+  </si>
+  <si>
+    <t>6 pin header, Pitch 0.100</t>
   </si>
 </sst>
 </file>
@@ -792,6 +792,315 @@
   </cellStyles>
   <dxfs count="18">
     <dxf>
+      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.000"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -815,315 +1124,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.000"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1135,25 +1135,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L25" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L25" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="A1:L25"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Reference Designator" dataDxfId="13"/>
-    <tableColumn id="2" name="Part Number" dataDxfId="12"/>
-    <tableColumn id="3" name="Description" dataDxfId="11"/>
-    <tableColumn id="4" name="Quantity per board" dataDxfId="10"/>
-    <tableColumn id="5" name="Price per Piece" dataDxfId="9"/>
-    <tableColumn id="6" name="Total Price" dataDxfId="8">
+    <tableColumn id="1" name="Reference Designator" dataDxfId="11"/>
+    <tableColumn id="2" name="Part Number" dataDxfId="10"/>
+    <tableColumn id="3" name="Description" dataDxfId="9"/>
+    <tableColumn id="4" name="Quantity per board" dataDxfId="8"/>
+    <tableColumn id="5" name="Price per Piece" dataDxfId="7"/>
+    <tableColumn id="6" name="Total Price" dataDxfId="6">
       <calculatedColumnFormula>Table1[[#This Row],[Price per Piece]]*Table1[[#This Row],[Quantity per board]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Actual # Purchased" dataDxfId="7"/>
-    <tableColumn id="11" name="Actual Price per Piece" dataDxfId="6"/>
-    <tableColumn id="14" name="Actual Total" dataDxfId="5">
+    <tableColumn id="12" name="Actual # Purchased" dataDxfId="5"/>
+    <tableColumn id="11" name="Actual Price per Piece" dataDxfId="4"/>
+    <tableColumn id="14" name="Actual Total" dataDxfId="3">
       <calculatedColumnFormula>Table1[[#This Row],[Actual Price per Piece]]*Table1[[#This Row],[Actual '# Purchased]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Link to vendor website" dataDxfId="4"/>
-    <tableColumn id="10" name="Package Size" dataDxfId="3" dataCellStyle="Hyperlink"/>
-    <tableColumn id="8" name="Notes" dataDxfId="2"/>
+    <tableColumn id="7" name="Link to vendor website" dataDxfId="2"/>
+    <tableColumn id="10" name="Package Size" dataDxfId="1" dataCellStyle="Hyperlink"/>
+    <tableColumn id="8" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1449,7 +1449,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D4" s="24">
         <v>1</v>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="24">
         <v>1</v>
@@ -2489,10 +2489,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
